--- a/stock/data/BGF리테일.xlsx
+++ b/stock/data/BGF리테일.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1553"/>
+  <dimension ref="A1:G1586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36164,10 +36164,769 @@
         <v>117700</v>
       </c>
       <c r="F1553" t="n">
-        <v>37117</v>
+        <v>60274</v>
       </c>
       <c r="G1553" t="n">
         <v>0.5982905982905984</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B1554" t="n">
+        <v>118500</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>121900</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>117700</v>
+      </c>
+      <c r="E1554" t="n">
+        <v>121900</v>
+      </c>
+      <c r="F1554" t="n">
+        <v>64407</v>
+      </c>
+      <c r="G1554" t="n">
+        <v>3.56839422259983</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B1555" t="n">
+        <v>120600</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>122000</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E1555" t="n">
+        <v>121500</v>
+      </c>
+      <c r="F1555" t="n">
+        <v>63585</v>
+      </c>
+      <c r="G1555" t="n">
+        <v>-0.3281378178835111</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B1556" t="n">
+        <v>120400</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>120600</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>117200</v>
+      </c>
+      <c r="E1556" t="n">
+        <v>119500</v>
+      </c>
+      <c r="F1556" t="n">
+        <v>72499</v>
+      </c>
+      <c r="G1556" t="n">
+        <v>-1.646090534979424</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>120000</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>120000</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>117000</v>
+      </c>
+      <c r="E1557" t="n">
+        <v>117100</v>
+      </c>
+      <c r="F1557" t="n">
+        <v>59081</v>
+      </c>
+      <c r="G1557" t="n">
+        <v>-2.00836820083682</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B1558" t="n">
+        <v>116800</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>118800</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>116700</v>
+      </c>
+      <c r="E1558" t="n">
+        <v>117000</v>
+      </c>
+      <c r="F1558" t="n">
+        <v>49946</v>
+      </c>
+      <c r="G1558" t="n">
+        <v>-0.08539709649871904</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>117000</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>118800</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>116500</v>
+      </c>
+      <c r="E1559" t="n">
+        <v>118700</v>
+      </c>
+      <c r="F1559" t="n">
+        <v>55143</v>
+      </c>
+      <c r="G1559" t="n">
+        <v>1.452991452991453</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>119400</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>119900</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>117900</v>
+      </c>
+      <c r="E1560" t="n">
+        <v>119900</v>
+      </c>
+      <c r="F1560" t="n">
+        <v>39512</v>
+      </c>
+      <c r="G1560" t="n">
+        <v>1.01095197978096</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B1561" t="n">
+        <v>117300</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>120700</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>117300</v>
+      </c>
+      <c r="E1561" t="n">
+        <v>120700</v>
+      </c>
+      <c r="F1561" t="n">
+        <v>86665</v>
+      </c>
+      <c r="G1561" t="n">
+        <v>0.6672226855713094</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B1562" t="n">
+        <v>119600</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>119900</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>116700</v>
+      </c>
+      <c r="E1562" t="n">
+        <v>116700</v>
+      </c>
+      <c r="F1562" t="n">
+        <v>83082</v>
+      </c>
+      <c r="G1562" t="n">
+        <v>-3.314001657000829</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B1563" t="n">
+        <v>116500</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>116600</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>112300</v>
+      </c>
+      <c r="E1563" t="n">
+        <v>112500</v>
+      </c>
+      <c r="F1563" t="n">
+        <v>109075</v>
+      </c>
+      <c r="G1563" t="n">
+        <v>-3.598971722365039</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>112000</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>117100</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>111300</v>
+      </c>
+      <c r="E1564" t="n">
+        <v>117100</v>
+      </c>
+      <c r="F1564" t="n">
+        <v>67490</v>
+      </c>
+      <c r="G1564" t="n">
+        <v>4.088888888888889</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>117100</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>121500</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>115600</v>
+      </c>
+      <c r="E1565" t="n">
+        <v>121500</v>
+      </c>
+      <c r="F1565" t="n">
+        <v>95340</v>
+      </c>
+      <c r="G1565" t="n">
+        <v>3.757472245943637</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>121400</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>125600</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>125600</v>
+      </c>
+      <c r="F1566" t="n">
+        <v>146496</v>
+      </c>
+      <c r="G1566" t="n">
+        <v>3.374485596707819</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>124500</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>129000</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>123100</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>128900</v>
+      </c>
+      <c r="F1567" t="n">
+        <v>148617</v>
+      </c>
+      <c r="G1567" t="n">
+        <v>2.627388535031847</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>129100</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>130600</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>126900</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>129100</v>
+      </c>
+      <c r="F1568" t="n">
+        <v>57455</v>
+      </c>
+      <c r="G1568" t="n">
+        <v>0.1551590380139643</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>128200</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>130900</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>128200</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>130800</v>
+      </c>
+      <c r="F1569" t="n">
+        <v>52618</v>
+      </c>
+      <c r="G1569" t="n">
+        <v>1.316808675445391</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>131000</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>132000</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>130700</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>131900</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>52155</v>
+      </c>
+      <c r="G1570" t="n">
+        <v>0.8409785932721712</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>130100</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>130900</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>125200</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>129000</v>
+      </c>
+      <c r="F1571" t="n">
+        <v>75148</v>
+      </c>
+      <c r="G1571" t="n">
+        <v>-2.198635329795299</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>127900</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>130000</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>126100</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>128000</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>38996</v>
+      </c>
+      <c r="G1572" t="n">
+        <v>-0.7751937984496124</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>130000</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>131000</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>129200</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>130000</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>69725</v>
+      </c>
+      <c r="G1573" t="n">
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>130200</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>132900</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>127600</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>131100</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>78005</v>
+      </c>
+      <c r="G1574" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>132300</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>133500</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>130000</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>133100</v>
+      </c>
+      <c r="F1575" t="n">
+        <v>77366</v>
+      </c>
+      <c r="G1575" t="n">
+        <v>1.525553012967201</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>131500</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>134200</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>129700</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>132700</v>
+      </c>
+      <c r="F1576" t="n">
+        <v>58780</v>
+      </c>
+      <c r="G1576" t="n">
+        <v>-0.3005259203606311</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>134300</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>134400</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>132600</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>133500</v>
+      </c>
+      <c r="F1577" t="n">
+        <v>74246</v>
+      </c>
+      <c r="G1577" t="n">
+        <v>0.6028636021100227</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>134100</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>136200</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>131300</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>136200</v>
+      </c>
+      <c r="F1578" t="n">
+        <v>33728</v>
+      </c>
+      <c r="G1578" t="n">
+        <v>2.02247191011236</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>135900</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>135900</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>133800</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>135200</v>
+      </c>
+      <c r="F1579" t="n">
+        <v>82091</v>
+      </c>
+      <c r="G1579" t="n">
+        <v>-0.7342143906020557</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>136200</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>136200</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>133300</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>133600</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>23137</v>
+      </c>
+      <c r="G1580" t="n">
+        <v>-1.183431952662722</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>133800</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>133800</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>127100</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>127800</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>49564</v>
+      </c>
+      <c r="G1581" t="n">
+        <v>-4.341317365269461</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>127800</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>128000</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>125900</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>126000</v>
+      </c>
+      <c r="F1582" t="n">
+        <v>46440</v>
+      </c>
+      <c r="G1582" t="n">
+        <v>-1.408450704225352</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>126000</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>127100</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>120500</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>120600</v>
+      </c>
+      <c r="F1583" t="n">
+        <v>104491</v>
+      </c>
+      <c r="G1583" t="n">
+        <v>-4.285714285714286</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>120400</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>121000</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>119800</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>120100</v>
+      </c>
+      <c r="F1584" t="n">
+        <v>66486</v>
+      </c>
+      <c r="G1584" t="n">
+        <v>-0.4145936981757877</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>121000</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>121000</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>118200</v>
+      </c>
+      <c r="E1585" t="n">
+        <v>118500</v>
+      </c>
+      <c r="F1585" t="n">
+        <v>47482</v>
+      </c>
+      <c r="G1585" t="n">
+        <v>-1.332223147377186</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>118000</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>119500</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>117500</v>
+      </c>
+      <c r="E1586" t="n">
+        <v>117500</v>
+      </c>
+      <c r="F1586" t="n">
+        <v>38348</v>
+      </c>
+      <c r="G1586" t="n">
+        <v>-0.8438818565400843</v>
       </c>
     </row>
   </sheetData>
